--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,15 +46,15 @@
     <t>useless</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -64,96 +64,90 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>potatoes</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
@@ -163,88 +157,91 @@
     <t>pie</t>
   </si>
   <si>
-    <t>cream</t>
+    <t>old</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>cooking</t>
+    <t>always</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
   </si>
   <si>
     <t>time</t>
@@ -611,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +751,13 @@
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.890625</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4339622641509434</v>
+        <v>0.3875968992248062</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.868421052631579</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>561</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>561</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4108527131782946</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8260869565217391</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="L6">
-        <v>57</v>
+        <v>561</v>
       </c>
       <c r="M6">
-        <v>57</v>
+        <v>561</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3535353535353535</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.7931034482758621</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +927,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.7608695652173914</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -948,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -956,13 +953,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L9">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +979,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1008,13 +1005,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.6883116883116883</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L11">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1026,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1034,13 +1031,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.6813559322033899</v>
+        <v>0.6677966101694915</v>
       </c>
       <c r="L12">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M12">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1052,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1060,13 +1057,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.6617647058823529</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1078,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1086,13 +1083,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.6444444444444445</v>
+        <v>0.65625</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1104,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1112,13 +1109,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.6338028169014085</v>
+        <v>0.6380417335473515</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>795</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>795</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1130,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1138,13 +1135,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6324237560192616</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L16">
-        <v>788</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>788</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1156,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>458</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1164,13 +1161,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6164383561643836</v>
+        <v>0.6</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1182,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1190,13 +1187,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.5846153846153846</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1208,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1216,13 +1213,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.5714285714285714</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1234,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1242,25 +1239,25 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.5625</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="L20">
+        <v>47</v>
+      </c>
+      <c r="M20">
+        <v>47</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>36</v>
-      </c>
-      <c r="M20">
-        <v>36</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>28</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1268,13 +1265,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5285714285714286</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1286,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1294,13 +1291,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5192307692307693</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L22">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1312,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1320,13 +1317,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5180722891566265</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1338,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1346,13 +1343,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5089820359281437</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L24">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M24">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1364,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1372,13 +1369,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5087719298245614</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1390,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1398,13 +1395,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5042735042735043</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L26">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M26">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1416,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1424,13 +1421,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1442,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1450,13 +1447,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4901960784313725</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1468,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1476,13 +1473,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4754098360655737</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1494,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1502,13 +1499,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4605263157894737</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1520,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1528,13 +1525,13 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.4511278195488722</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L31">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M31">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1546,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1554,13 +1551,13 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1572,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1580,13 +1577,13 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.4397590361445783</v>
+        <v>0.3696498054474708</v>
       </c>
       <c r="L33">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="M33">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1598,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>93</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1606,13 +1603,13 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.4126984126984127</v>
+        <v>0.3553921568627451</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1624,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>37</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1632,13 +1629,13 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.3891050583657588</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L35">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1650,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>157</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1658,13 +1655,13 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>0.3676470588235294</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L36">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="M36">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1676,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>258</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1684,13 +1681,13 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>0.3538461538461539</v>
+        <v>0.3219178082191781</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1702,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>42</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1710,13 +1707,13 @@
         <v>49</v>
       </c>
       <c r="K38">
-        <v>0.3382352941176471</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1728,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1736,13 +1733,13 @@
         <v>50</v>
       </c>
       <c r="K39">
-        <v>0.3178082191780822</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L39">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1754,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>498</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1762,13 +1759,13 @@
         <v>51</v>
       </c>
       <c r="K40">
-        <v>0.3026315789473684</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1780,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>53</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1788,13 +1785,13 @@
         <v>52</v>
       </c>
       <c r="K41">
-        <v>0.2962962962962963</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1806,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1814,13 +1811,13 @@
         <v>53</v>
       </c>
       <c r="K42">
-        <v>0.2932330827067669</v>
+        <v>0.2465016146393972</v>
       </c>
       <c r="L42">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="M42">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1832,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>94</v>
+        <v>700</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1840,13 +1837,13 @@
         <v>54</v>
       </c>
       <c r="K43">
-        <v>0.2870813397129187</v>
+        <v>0.2446043165467626</v>
       </c>
       <c r="L43">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1858,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1866,13 +1863,13 @@
         <v>55</v>
       </c>
       <c r="K44">
-        <v>0.2702702702702703</v>
+        <v>0.2342342342342342</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1884,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1892,13 +1889,13 @@
         <v>56</v>
       </c>
       <c r="K45">
-        <v>0.2661870503597122</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="L45">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1910,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1918,13 +1915,13 @@
         <v>57</v>
       </c>
       <c r="K46">
-        <v>0.2317880794701987</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="L46">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M46">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1936,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1944,25 +1941,25 @@
         <v>58</v>
       </c>
       <c r="K47">
-        <v>0.2303552206673843</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="L47">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>715</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1970,13 +1967,13 @@
         <v>59</v>
       </c>
       <c r="K48">
-        <v>0.2277227722772277</v>
+        <v>0.1912225705329154</v>
       </c>
       <c r="L48">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1988,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>78</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1996,13 +1993,13 @@
         <v>60</v>
       </c>
       <c r="K49">
-        <v>0.2080536912751678</v>
+        <v>0.1892583120204604</v>
       </c>
       <c r="L49">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="M49">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2014,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>118</v>
+        <v>634</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2022,13 +2019,13 @@
         <v>61</v>
       </c>
       <c r="K50">
-        <v>0.1973509933774834</v>
+        <v>0.1867549668874172</v>
       </c>
       <c r="L50">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="M50">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2040,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>606</v>
+        <v>614</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2048,13 +2045,13 @@
         <v>62</v>
       </c>
       <c r="K51">
-        <v>0.1880877742946709</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="L51">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2066,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>259</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2074,13 +2071,13 @@
         <v>63</v>
       </c>
       <c r="K52">
-        <v>0.1790281329923274</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="L52">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="M52">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2092,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>642</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2100,25 +2097,25 @@
         <v>64</v>
       </c>
       <c r="K53">
-        <v>0.1646341463414634</v>
+        <v>0.1436314363143631</v>
       </c>
       <c r="L53">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="M53">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>137</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2126,25 +2123,25 @@
         <v>65</v>
       </c>
       <c r="K54">
-        <v>0.1594594594594595</v>
+        <v>0.1365313653136531</v>
       </c>
       <c r="L54">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="M54">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="N54">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>311</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2152,13 +2149,13 @@
         <v>66</v>
       </c>
       <c r="K55">
-        <v>0.1469298245614035</v>
+        <v>0.125</v>
       </c>
       <c r="L55">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="M55">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2170,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2178,13 +2175,13 @@
         <v>67</v>
       </c>
       <c r="K56">
-        <v>0.1355932203389831</v>
+        <v>0.1140350877192982</v>
       </c>
       <c r="L56">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="M56">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2196,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>153</v>
+        <v>404</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2204,13 +2201,13 @@
         <v>68</v>
       </c>
       <c r="K57">
-        <v>0.1121718377088305</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L57">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M57">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2222,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>372</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2230,13 +2227,13 @@
         <v>69</v>
       </c>
       <c r="K58">
-        <v>0.1107011070110701</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L58">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M58">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2248,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>241</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2256,13 +2253,13 @@
         <v>70</v>
       </c>
       <c r="K59">
-        <v>0.1068181818181818</v>
+        <v>0.1037037037037037</v>
       </c>
       <c r="L59">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M59">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2274,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>393</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2282,13 +2279,13 @@
         <v>71</v>
       </c>
       <c r="K60">
-        <v>0.1037037037037037</v>
+        <v>0.1002386634844869</v>
       </c>
       <c r="L60">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M60">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2300,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>242</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2308,13 +2305,13 @@
         <v>72</v>
       </c>
       <c r="K61">
-        <v>0.1008403361344538</v>
+        <v>0.09975669099756691</v>
       </c>
       <c r="L61">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M61">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2326,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>214</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2334,25 +2331,25 @@
         <v>73</v>
       </c>
       <c r="K62">
-        <v>0.08934707903780069</v>
+        <v>0.07460545193687231</v>
       </c>
       <c r="L62">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="M62">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>265</v>
+        <v>645</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2360,13 +2357,13 @@
         <v>74</v>
       </c>
       <c r="K63">
-        <v>0.08029197080291971</v>
+        <v>0.06830601092896176</v>
       </c>
       <c r="L63">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M63">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2378,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>378</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2386,13 +2383,13 @@
         <v>75</v>
       </c>
       <c r="K64">
-        <v>0.06641721234798878</v>
+        <v>0.06828811973807297</v>
       </c>
       <c r="L64">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M64">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N64">
         <v>0.96</v>
@@ -2404,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2412,13 +2409,13 @@
         <v>76</v>
       </c>
       <c r="K65">
-        <v>0.06465517241379311</v>
+        <v>0.04251386321626617</v>
       </c>
       <c r="L65">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M65">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N65">
         <v>0.96</v>
@@ -2430,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>651</v>
+        <v>518</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2438,51 +2435,25 @@
         <v>77</v>
       </c>
       <c r="K66">
-        <v>0.04428044280442804</v>
+        <v>0.04246100519930676</v>
       </c>
       <c r="L66">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M66">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="67" spans="10:17">
-      <c r="J67" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K67">
-        <v>0.0390625</v>
-      </c>
-      <c r="L67">
-        <v>45</v>
-      </c>
-      <c r="M67">
-        <v>50</v>
-      </c>
-      <c r="N67">
-        <v>0.9</v>
-      </c>
-      <c r="O67">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q67">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
